--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/matrix/matrix.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/matrix/matrix.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +477,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/matrix</v>
       </c>
       <c r="D3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/biota|https://data.omgeving.vlaanderen.be/id/concept/matrix/eieren|https://data.omgeving.vlaanderen.be/id/concept/matrix/gewassen|https://data.omgeving.vlaanderen.be/id/concept/matrix/groenten|https://data.omgeving.vlaanderen.be/id/concept/matrix/hard_gesteente|https://data.omgeving.vlaanderen.be/id/concept/matrix/infrastructuur|https://data.omgeving.vlaanderen.be/id/concept/matrix/sediment|https://data.omgeving.vlaanderen.be/id/concept/matrix/strooisel|https://data.omgeving.vlaanderen.be/id/concept/matrix/vilt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/biota|https://data.omgeving.vlaanderen.be/id/concept/matrix/eieren|https://data.omgeving.vlaanderen.be/id/concept/matrix/gewassen|https://data.omgeving.vlaanderen.be/id/concept/matrix/groenten|https://data.omgeving.vlaanderen.be/id/concept/matrix/hard_gesteente|https://data.omgeving.vlaanderen.be/id/concept/matrix/infrastructuur|https://data.omgeving.vlaanderen.be/id/concept/matrix/lucht|https://data.omgeving.vlaanderen.be/id/concept/matrix/sediment|https://data.omgeving.vlaanderen.be/id/concept/matrix/strooisel|https://data.omgeving.vlaanderen.be/id/concept/matrix/vilt</v>
       </c>
       <c r="E3" t="str">
         <v>Collectie van matrices m.b.t. lucht.</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/oppervlaktewater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/lucht</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -928,13 +928,13 @@
         <v>null</v>
       </c>
       <c r="E17" t="str">
-        <v>Oppervlaktewater</v>
+        <v>Lucht</v>
       </c>
       <c r="F17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/matrix</v>
       </c>
       <c r="G17" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/7884</v>
       </c>
       <c r="H17" t="str">
         <v>null</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/sediment</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/oppervlaktewater</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -960,13 +960,13 @@
         <v>null</v>
       </c>
       <c r="E18" t="str">
-        <v>Sediment</v>
+        <v>Oppervlaktewater</v>
       </c>
       <c r="F18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/matrix</v>
       </c>
       <c r="G18" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/7884</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="H18" t="str">
         <v>null</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/strooisel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/sediment</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -992,7 +992,7 @@
         <v>null</v>
       </c>
       <c r="E19" t="str">
-        <v>Strooisel</v>
+        <v>Sediment</v>
       </c>
       <c r="F19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/matrix</v>
@@ -1001,10 +1001,10 @@
         <v>http://www.eionet.europa.eu/gemet/concept/7884</v>
       </c>
       <c r="H19" t="str">
-        <v>Afgestorven plantenmateriaal dat op de bodem ligt en nog niet verteerd is.</v>
+        <v>null</v>
       </c>
       <c r="I19" t="str">
-        <v>Afgestorven plantenmateriaal dat op de bodem ligt en nog niet verteerd is.</v>
+        <v>null</v>
       </c>
       <c r="J19" t="str">
         <v>null</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/vilt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/strooisel</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1024,7 +1024,7 @@
         <v>null</v>
       </c>
       <c r="E20" t="str">
-        <v>Vilt</v>
+        <v>Strooisel</v>
       </c>
       <c r="F20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/matrix</v>
@@ -1033,10 +1033,10 @@
         <v>http://www.eionet.europa.eu/gemet/concept/7884</v>
       </c>
       <c r="H20" t="str">
-        <v>Afgestorven gazonmaaisel en plantendelen, mossen, mosresten en ander organisch materiaal dat met de wind wordt aangevoerd dat een ondoordringbare laag vormt op de bodem.</v>
+        <v>Afgestorven plantenmateriaal dat op de bodem ligt en nog niet verteerd is.</v>
       </c>
       <c r="I20" t="str">
-        <v>Afgestorven gazonmaaisel en plantendelen, mossen, mosresten en ander organisch materiaal dat met de wind wordt aangevoerd dat een ondoordringbare laag vormt op de bodem.</v>
+        <v>Afgestorven plantenmateriaal dat op de bodem ligt en nog niet verteerd is.</v>
       </c>
       <c r="J20" t="str">
         <v>null</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/waterbodem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/vilt</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1056,19 +1056,19 @@
         <v>null</v>
       </c>
       <c r="E21" t="str">
-        <v>Waterbodem</v>
+        <v>Vilt</v>
       </c>
       <c r="F21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/matrix</v>
       </c>
       <c r="G21" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/7884</v>
       </c>
       <c r="H21" t="str">
-        <v>null</v>
+        <v>Afgestorven gazonmaaisel en plantendelen, mossen, mosresten en ander organisch materiaal dat met de wind wordt aangevoerd dat een ondoordringbare laag vormt op de bodem.</v>
       </c>
       <c r="I21" t="str">
-        <v>null</v>
+        <v>Afgestorven gazonmaaisel en plantendelen, mossen, mosresten en ander organisch materiaal dat met de wind wordt aangevoerd dat een ondoordringbare laag vormt op de bodem.</v>
       </c>
       <c r="J21" t="str">
         <v>null</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/zwevend_stof</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/waterbodem</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1088,13 +1088,13 @@
         <v>null</v>
       </c>
       <c r="E22" t="str">
-        <v>Zwevend stof</v>
+        <v>Waterbodem</v>
       </c>
       <c r="F22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/matrix</v>
       </c>
       <c r="G22" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/270</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="H22" t="str">
         <v>null</v>
@@ -1108,39 +1108,71 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/matrix</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/zwevend_stof</v>
       </c>
       <c r="B23" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/matrix</v>
+      </c>
+      <c r="D23" t="str">
+        <v>null</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Zwevend stof</v>
+      </c>
+      <c r="F23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/matrix</v>
+      </c>
+      <c r="G23" t="str">
+        <v>http://www.eionet.europa.eu/gemet/concept/270</v>
+      </c>
+      <c r="H23" t="str">
+        <v>null</v>
+      </c>
+      <c r="I23" t="str">
+        <v>null</v>
+      </c>
+      <c r="J23" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/matrix</v>
+      </c>
+      <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
-      <c r="C23" t="str">
-        <v>null</v>
-      </c>
-      <c r="D23" t="str">
-        <v>null</v>
-      </c>
-      <c r="E23" t="str">
+      <c r="C24" t="str">
+        <v>null</v>
+      </c>
+      <c r="D24" t="str">
+        <v>null</v>
+      </c>
+      <c r="E24" t="str">
         <v>Codelijst matrices.</v>
       </c>
-      <c r="F23" t="str">
-        <v>null</v>
-      </c>
-      <c r="G23" t="str">
-        <v>null</v>
-      </c>
-      <c r="H23" t="str">
-        <v>null</v>
-      </c>
-      <c r="I23" t="str">
-        <v>null</v>
-      </c>
-      <c r="J23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/depositie|https://data.omgeving.vlaanderen.be/id/concept/matrix/zwevend_stof|https://data.omgeving.vlaanderen.be/id/concept/matrix/biota|https://data.omgeving.vlaanderen.be/id/concept/matrix/eieren|https://data.omgeving.vlaanderen.be/id/concept/matrix/gewassen|https://data.omgeving.vlaanderen.be/id/concept/matrix/groenten|https://data.omgeving.vlaanderen.be/id/concept/matrix/hard_gesteente|https://data.omgeving.vlaanderen.be/id/concept/matrix/infrastructuur|https://data.omgeving.vlaanderen.be/id/concept/matrix/sediment|https://data.omgeving.vlaanderen.be/id/concept/matrix/strooisel|https://data.omgeving.vlaanderen.be/id/concept/matrix/vilt|https://data.omgeving.vlaanderen.be/id/concept/matrix/afvalwater|https://data.omgeving.vlaanderen.be/id/concept/matrix/bemalingswater|https://data.omgeving.vlaanderen.be/id/concept/matrix/drinkwater|https://data.omgeving.vlaanderen.be/id/concept/matrix/grondwater|https://data.omgeving.vlaanderen.be/id/concept/matrix/koelwater|https://data.omgeving.vlaanderen.be/id/concept/matrix/oppervlaktewater|https://data.omgeving.vlaanderen.be/id/concept/matrix/waterbodem</v>
+      <c r="F24" t="str">
+        <v>null</v>
+      </c>
+      <c r="G24" t="str">
+        <v>null</v>
+      </c>
+      <c r="H24" t="str">
+        <v>null</v>
+      </c>
+      <c r="I24" t="str">
+        <v>null</v>
+      </c>
+      <c r="J24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/matrix/depositie|https://data.omgeving.vlaanderen.be/id/concept/matrix/zwevend_stof|https://data.omgeving.vlaanderen.be/id/concept/matrix/biota|https://data.omgeving.vlaanderen.be/id/concept/matrix/eieren|https://data.omgeving.vlaanderen.be/id/concept/matrix/gewassen|https://data.omgeving.vlaanderen.be/id/concept/matrix/groenten|https://data.omgeving.vlaanderen.be/id/concept/matrix/hard_gesteente|https://data.omgeving.vlaanderen.be/id/concept/matrix/infrastructuur|https://data.omgeving.vlaanderen.be/id/concept/matrix/lucht|https://data.omgeving.vlaanderen.be/id/concept/matrix/sediment|https://data.omgeving.vlaanderen.be/id/concept/matrix/strooisel|https://data.omgeving.vlaanderen.be/id/concept/matrix/vilt|https://data.omgeving.vlaanderen.be/id/concept/matrix/afvalwater|https://data.omgeving.vlaanderen.be/id/concept/matrix/bemalingswater|https://data.omgeving.vlaanderen.be/id/concept/matrix/drinkwater|https://data.omgeving.vlaanderen.be/id/concept/matrix/grondwater|https://data.omgeving.vlaanderen.be/id/concept/matrix/koelwater|https://data.omgeving.vlaanderen.be/id/concept/matrix/oppervlaktewater|https://data.omgeving.vlaanderen.be/id/concept/matrix/waterbodem</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J24"/>
   </ignoredErrors>
 </worksheet>
 </file>